--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.219198962044662</v>
+        <v>0.290242</v>
       </c>
       <c r="H2">
-        <v>0.219198962044662</v>
+        <v>0.870726</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.6490831457555</v>
+        <v>25.17918166666666</v>
       </c>
       <c r="N2">
-        <v>22.6490831457555</v>
+        <v>75.53754499999999</v>
       </c>
       <c r="O2">
-        <v>0.2515079658004596</v>
+        <v>0.2628209717145306</v>
       </c>
       <c r="P2">
-        <v>0.2515079658004596</v>
+        <v>0.2628209717145306</v>
       </c>
       <c r="Q2">
-        <v>4.964655516812853</v>
+        <v>7.308056045296667</v>
       </c>
       <c r="R2">
-        <v>4.964655516812853</v>
+        <v>65.77250440767</v>
       </c>
       <c r="S2">
-        <v>0.2515079658004596</v>
+        <v>0.2628209717145306</v>
       </c>
       <c r="T2">
-        <v>0.2515079658004596</v>
+        <v>0.2628209717145306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.219198962044662</v>
+        <v>0.290242</v>
       </c>
       <c r="H3">
-        <v>0.219198962044662</v>
+        <v>0.870726</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.2210855692704</v>
+        <v>20.25845733333333</v>
       </c>
       <c r="N3">
-        <v>20.2210855692704</v>
+        <v>60.775372</v>
       </c>
       <c r="O3">
-        <v>0.2245461357122225</v>
+        <v>0.2114583195065722</v>
       </c>
       <c r="P3">
-        <v>0.2245461357122225</v>
+        <v>0.2114583195065722</v>
       </c>
       <c r="Q3">
-        <v>4.432440968200365</v>
+        <v>5.879855173341333</v>
       </c>
       <c r="R3">
-        <v>4.432440968200365</v>
+        <v>52.918696560072</v>
       </c>
       <c r="S3">
-        <v>0.2245461357122225</v>
+        <v>0.2114583195065722</v>
       </c>
       <c r="T3">
-        <v>0.2245461357122225</v>
+        <v>0.2114583195065722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.219198962044662</v>
+        <v>0.290242</v>
       </c>
       <c r="H4">
-        <v>0.219198962044662</v>
+        <v>0.870726</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.0359483821386</v>
+        <v>38.16548666666667</v>
       </c>
       <c r="N4">
-        <v>35.0359483821386</v>
+        <v>114.49646</v>
       </c>
       <c r="O4">
-        <v>0.3890585791386854</v>
+        <v>0.3983723706545385</v>
       </c>
       <c r="P4">
-        <v>0.3890585791386854</v>
+        <v>0.3983723706545386</v>
       </c>
       <c r="Q4">
-        <v>7.679843519615136</v>
+        <v>11.07722718110667</v>
       </c>
       <c r="R4">
-        <v>7.679843519615136</v>
+        <v>99.69504462995999</v>
       </c>
       <c r="S4">
-        <v>0.3890585791386854</v>
+        <v>0.3983723706545385</v>
       </c>
       <c r="T4">
-        <v>0.3890585791386854</v>
+        <v>0.3983723706545386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.219198962044662</v>
+        <v>0.290242</v>
       </c>
       <c r="H5">
-        <v>0.219198962044662</v>
+        <v>0.870726</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1470272383304</v>
+        <v>12.20042266666667</v>
       </c>
       <c r="N5">
-        <v>12.1470272383304</v>
+        <v>36.601268</v>
       </c>
       <c r="O5">
-        <v>0.1348873193486325</v>
+        <v>0.1273483381243586</v>
       </c>
       <c r="P5">
-        <v>0.1348873193486325</v>
+        <v>0.1273483381243586</v>
       </c>
       <c r="Q5">
-        <v>2.662615762570261</v>
+        <v>3.541075075618667</v>
       </c>
       <c r="R5">
-        <v>2.662615762570261</v>
+        <v>31.869675680568</v>
       </c>
       <c r="S5">
-        <v>0.1348873193486325</v>
+        <v>0.1273483381243586</v>
       </c>
       <c r="T5">
-        <v>0.1348873193486325</v>
+        <v>0.1273483381243586</v>
       </c>
     </row>
   </sheetData>
